--- a/config/SetTestCase/TestData.xlsx
+++ b/config/SetTestCase/TestData.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14910" windowHeight="7275" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="27630" windowHeight="11700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="testBlogs" sheetId="2" r:id="rId1"/>
-    <sheet name="testSubscribe" sheetId="3" r:id="rId2"/>
+    <sheet name="testWorkFrontJobs" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:T22"/>
@@ -16,17 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
-  <si>
-    <t>fname</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>sec</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>SrNo</t>
   </si>
   <si>
@@ -36,12 +30,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>femail</t>
-  </si>
-  <si>
     <t>semail</t>
   </si>
   <si>
@@ -58,6 +46,45 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>Client Name</t>
+  </si>
+  <si>
+    <t>Automation test client</t>
+  </si>
+  <si>
+    <t>NAN</t>
+  </si>
+  <si>
+    <t>EIN</t>
+  </si>
+  <si>
+    <t>EIN Type</t>
+  </si>
+  <si>
+    <t>Tax Filing - Federal</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Street 119</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>TX</t>
   </si>
 </sst>
 </file>
@@ -406,13 +433,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -420,10 +447,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -431,10 +458,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -442,10 +469,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -455,63 +482,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>25693698</v>
+      </c>
+      <c r="E2">
+        <v>256987458</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2">
+        <v>75898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/config/SetTestCase/TestData.xlsx
+++ b/config/SetTestCase/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="27630" windowHeight="11700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13290" windowHeight="4800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="testBlogs" sheetId="2" r:id="rId1"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
-  <si>
-    <t>sec</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>SrNo</t>
   </si>
@@ -28,9 +25,6 @@
   </si>
   <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>semail</t>
   </si>
   <si>
     <t>Language</t>
@@ -433,13 +427,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -447,10 +441,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -458,10 +452,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -469,10 +463,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -482,10 +476,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,45 +491,45 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>25693698</v>
@@ -544,36 +538,83 @@
         <v>256987458</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
       </c>
       <c r="J2">
         <v>75898</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
+      <c r="D3">
+        <v>25693698</v>
+      </c>
+      <c r="E3">
+        <v>256987458</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>75898</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>25693698</v>
+      </c>
+      <c r="E4">
+        <v>256987458</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>75898</v>
       </c>
     </row>
   </sheetData>
